--- a/documents/timesheet/anthonyalbertyn-timesheet.xlsx
+++ b/documents/timesheet/anthonyalbertyn-timesheet.xlsx
@@ -18,8 +18,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Anthony Albertyn</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anthony Albertyn:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hours are in decimal hours. 
+Example: 3.25 hours is 3 hours and 15 minutes</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>DATE</t>
   </si>
@@ -37,13 +72,16 @@
   </si>
   <si>
     <t>Clean up HTML and partially integrate 960 grid system</t>
+  </si>
+  <si>
+    <t>Further integration of 960 grid system, readme.txt documentation, debug issue with missing files and review HTML5 Boilerplate integration, start introducing a mobile responsive grid to supplement 960 grid system which is not responsive, some minor styling.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -58,6 +96,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,24 +133,26 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,66 +484,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="6"/>
-    <col min="2" max="2" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="45" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6">
+      <c r="A2" s="2">
         <v>41947</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="3">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="6">
+      <c r="A3" s="2">
         <v>41948</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="3">
         <v>3.25</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6">
+      <c r="A4" s="2">
         <v>41949</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45">
+      <c r="A5" s="2">
+        <v>41951</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/documents/timesheet/anthonyalbertyn-timesheet.xlsx
+++ b/documents/timesheet/anthonyalbertyn-timesheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-27700" yWindow="2080" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="-29680" yWindow="2400" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>DATE</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Further integration of 960 grid system, readme.txt documentation, debug issue with missing files and review HTML5 Boilerplate integration, start introducing a mobile responsive grid to supplement 960 grid system which is not responsive, some minor styling.</t>
+  </si>
+  <si>
+    <t>Review of 960 grid system, setting up grid layout, cleaning up HTML, introduction of some styling</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -553,6 +556,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>41952</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>

--- a/documents/timesheet/anthonyalbertyn-timesheet.xlsx
+++ b/documents/timesheet/anthonyalbertyn-timesheet.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>DATE</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Review of 960 grid system, setting up grid layout, cleaning up HTML, introduction of some styling</t>
+  </si>
+  <si>
+    <t>Improve semantic markup, debug broken markup, imrpve semantic markup and make markup pass HTML 5 validation checks, introduce more mobile responsive behaviour to the page layout.</t>
   </si>
 </sst>
 </file>
@@ -488,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -567,6 +570,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7" s="2">
+        <v>41954</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3.17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>

--- a/documents/timesheet/anthonyalbertyn-timesheet.xlsx
+++ b/documents/timesheet/anthonyalbertyn-timesheet.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>DATE</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Improve semantic markup, debug broken markup, imrpve semantic markup and make markup pass HTML 5 validation checks, introduce more mobile responsive behaviour to the page layout.</t>
+  </si>
+  <si>
+    <t>Start styling page header. logo, global menu, site name, site slogan, global header and local header.</t>
   </si>
 </sst>
 </file>
@@ -93,6 +96,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -491,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -581,6 +585,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>41986</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>

--- a/documents/timesheet/anthonyalbertyn-timesheet.xlsx
+++ b/documents/timesheet/anthonyalbertyn-timesheet.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>DATE</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Start styling page header. logo, global menu, site name, site slogan, global header and local header.</t>
+  </si>
+  <si>
+    <t>Styling for header, main menu, mobile responsive styling for global nav and main nav, styles for page text like page headings, standfirst, secondary headings and paragraphs.</t>
   </si>
 </sst>
 </file>
@@ -495,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -596,6 +599,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="2">
+        <v>41987</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>

--- a/documents/timesheet/anthonyalbertyn-timesheet.xlsx
+++ b/documents/timesheet/anthonyalbertyn-timesheet.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>Styling for header, main menu, mobile responsive styling for global nav and main nav, styles for page text like page headings, standfirst, secondary headings and paragraphs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layout for footer area and start styling global navigation - desktop version done, mobile responsive version in progress </t>
+  </si>
+  <si>
+    <t>Total hours</t>
+  </si>
+  <si>
+    <t>Total cost £</t>
   </si>
 </sst>
 </file>
@@ -124,12 +133,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -144,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -166,6 +181,12 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,15 +519,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="16.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="86.33203125" style="1" customWidth="1"/>
   </cols>
@@ -608,6 +629,35 @@
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30">
+      <c r="A10" s="2">
+        <v>41988</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5.17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="9">
+        <f>SUM(B2:B27)</f>
+        <v>29.990000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="9">
+        <f>B28*45</f>
+        <v>1349.5500000000002</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timesheet/anthonyalbertyn-timesheet.xlsx
+++ b/documents/timesheet/anthonyalbertyn-timesheet.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>DATE</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Total cost £</t>
+  </si>
+  <si>
+    <t>Footer navigation and mobile responsive behavior for footer.</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -611,7 +614,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>41986</v>
+        <v>41956</v>
       </c>
       <c r="B8" s="3">
         <v>2.1</v>
@@ -622,7 +625,7 @@
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" s="2">
-        <v>41987</v>
+        <v>41957</v>
       </c>
       <c r="B9" s="3">
         <v>3</v>
@@ -633,13 +636,24 @@
     </row>
     <row r="10" spans="1:3" ht="30">
       <c r="A10" s="2">
-        <v>41988</v>
+        <v>41957</v>
       </c>
       <c r="B10" s="3">
         <v>5.17</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>41965</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -648,7 +662,7 @@
       </c>
       <c r="B28" s="9">
         <f>SUM(B2:B27)</f>
-        <v>29.990000000000002</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -657,7 +671,7 @@
       </c>
       <c r="B29" s="9">
         <f>B28*45</f>
-        <v>1349.5500000000002</v>
+        <v>1462.0500000000002</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timesheet/anthonyalbertyn-timesheet.xlsx
+++ b/documents/timesheet/anthonyalbertyn-timesheet.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>DATE</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Footer navigation and mobile responsive behavior for footer.</t>
+  </si>
+  <si>
+    <t>Layout with left sidebar, sidebar menu, page content styling like tables, bullets, headings and general tidy up</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -656,13 +659,24 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12" spans="1:3" ht="30">
+      <c r="A12" s="2">
+        <v>41966</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4.33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="9">
         <f>SUM(B2:B27)</f>
-        <v>32.49</v>
+        <v>36.82</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -671,7 +685,7 @@
       </c>
       <c r="B29" s="9">
         <f>B28*45</f>
-        <v>1462.0500000000002</v>
+        <v>1656.9</v>
       </c>
     </row>
   </sheetData>
